--- a/reports/Angola_trade_balance_2003-2022.xlsx
+++ b/reports/Angola_trade_balance_2003-2022.xlsx
@@ -527,16 +527,16 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>6674895546.083</v>
+        <v>6674906901.496</v>
       </c>
       <c r="E3">
-        <v>12774807491.45</v>
+        <v>12774810411.911</v>
       </c>
       <c r="G3">
-        <v>12774807491.45</v>
+        <v>12774810411.911</v>
       </c>
       <c r="I3">
-        <v>12774807491.45</v>
+        <v>12774810411.911</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -668,31 +668,31 @@
         <v>18143268908</v>
       </c>
       <c r="C9">
-        <v>15871622642.4</v>
+        <v>15872949234.383</v>
       </c>
       <c r="D9">
         <v>52612114761</v>
       </c>
       <c r="E9">
-        <v>53459185324.68</v>
+        <v>53468260062.542</v>
       </c>
       <c r="F9">
         <v>34468845853</v>
       </c>
       <c r="G9">
-        <v>35315916416.68</v>
+        <v>35324991154.542</v>
       </c>
       <c r="H9">
         <v>70755383669</v>
       </c>
       <c r="I9">
-        <v>71602454232.67999</v>
+        <v>71611528970.54199</v>
       </c>
       <c r="J9">
-        <v>1.143126277431234</v>
+        <v>1.143030739914368</v>
       </c>
       <c r="K9">
-        <v>0.9841548172024062</v>
+        <v>0.9839877845185057</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -703,31 +703,31 @@
         <v>20790996039</v>
       </c>
       <c r="C10">
-        <v>18520760698.377</v>
+        <v>18333355004.464</v>
       </c>
       <c r="D10">
         <v>66427390220</v>
       </c>
       <c r="E10">
-        <v>66204920204.589</v>
+        <v>66207593147.029</v>
       </c>
       <c r="F10">
         <v>45636394181</v>
       </c>
       <c r="G10">
-        <v>45413924165.589</v>
+        <v>45416597108.029</v>
       </c>
       <c r="H10">
         <v>87218386259</v>
       </c>
       <c r="I10">
-        <v>86995916243.58899</v>
+        <v>86998589186.02899</v>
       </c>
       <c r="J10">
-        <v>1.122577866945927</v>
+        <v>1.134052988879427</v>
       </c>
       <c r="K10">
-        <v>1.003360324500407</v>
+        <v>1.003319816693576</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -738,31 +738,31 @@
         <v>28722984064</v>
       </c>
       <c r="C11">
-        <v>21470797556.071</v>
+        <v>22112753500.981</v>
       </c>
       <c r="D11">
         <v>70863076413</v>
       </c>
       <c r="E11">
-        <v>75490334188.022</v>
+        <v>75490514447.70599</v>
       </c>
       <c r="F11">
         <v>42140092349</v>
       </c>
       <c r="G11">
-        <v>46767350124.022</v>
+        <v>46767530383.70599</v>
       </c>
       <c r="H11">
         <v>99586060477</v>
       </c>
       <c r="I11">
-        <v>104213318252.022</v>
+        <v>104213498511.706</v>
       </c>
       <c r="J11">
-        <v>1.337769777251633</v>
+        <v>1.298932946669249</v>
       </c>
       <c r="K11">
-        <v>0.9387039701864744</v>
+        <v>0.9387017287064386</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -808,31 +808,31 @@
         <v>28753499329</v>
       </c>
       <c r="C13">
-        <v>28333262583.051</v>
+        <v>28410762457.261</v>
       </c>
       <c r="D13">
         <v>58672369190</v>
       </c>
       <c r="E13">
-        <v>64694135949.551</v>
+        <v>64697442327.26</v>
       </c>
       <c r="F13">
         <v>29918869861</v>
       </c>
       <c r="G13">
-        <v>35940636620.551</v>
+        <v>35943942998.26</v>
       </c>
       <c r="H13">
         <v>87425868519</v>
       </c>
       <c r="I13">
-        <v>93447635278.55099</v>
+        <v>93450941656.26001</v>
       </c>
       <c r="J13">
-        <v>1.014831922187471</v>
+        <v>1.012063628079485</v>
       </c>
       <c r="K13">
-        <v>0.9069194344871253</v>
+        <v>0.9068730861602954</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -843,31 +843,31 @@
         <v>21549256530.51</v>
       </c>
       <c r="C14">
-        <v>18429400080.995</v>
+        <v>18528934652.054</v>
       </c>
       <c r="D14">
         <v>33924937478.31</v>
       </c>
       <c r="E14">
-        <v>36829782553.205</v>
+        <v>36842203105.928</v>
       </c>
       <c r="F14">
         <v>12375680947.8</v>
       </c>
       <c r="G14">
-        <v>15280526022.695</v>
+        <v>15292946575.418</v>
       </c>
       <c r="H14">
         <v>55474194008.82</v>
       </c>
       <c r="I14">
-        <v>58379039083.715</v>
+        <v>58391459636.438</v>
       </c>
       <c r="J14">
-        <v>1.169286923926097</v>
+        <v>1.163005695425732</v>
       </c>
       <c r="K14">
-        <v>0.9211278244529789</v>
+        <v>0.9208172861098906</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,31 +878,31 @@
         <v>14347710497.8</v>
       </c>
       <c r="C15">
-        <v>11567102732.507</v>
+        <v>11654615725.7</v>
       </c>
       <c r="D15">
         <v>28057499522.39</v>
       </c>
       <c r="E15">
-        <v>28304359387.426</v>
+        <v>28307515856.945</v>
       </c>
       <c r="F15">
         <v>13709789024.59</v>
       </c>
       <c r="G15">
-        <v>13956648889.626</v>
+        <v>13959805359.145</v>
       </c>
       <c r="H15">
         <v>42405210020.19</v>
       </c>
       <c r="I15">
-        <v>42652069885.226</v>
+        <v>42655226354.745</v>
       </c>
       <c r="J15">
-        <v>1.240389303146644</v>
+        <v>1.231075381246707</v>
       </c>
       <c r="K15">
-        <v>0.9912783800665821</v>
+        <v>0.9911678461713672</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,31 +913,31 @@
         <v>15462313478.23</v>
       </c>
       <c r="C16">
-        <v>11855347823.95</v>
+        <v>11876470470.501</v>
       </c>
       <c r="D16">
         <v>34904881109.37</v>
       </c>
       <c r="E16">
-        <v>36704443851.049</v>
+        <v>36707627053.981</v>
       </c>
       <c r="F16">
         <v>19442567631.14</v>
       </c>
       <c r="G16">
-        <v>21242130372.819</v>
+        <v>21245313575.751</v>
       </c>
       <c r="H16">
         <v>50367194587.60001</v>
       </c>
       <c r="I16">
-        <v>52166757329.27901</v>
+        <v>52169940532.211</v>
       </c>
       <c r="J16">
-        <v>1.304247982247578</v>
+        <v>1.301928339453677</v>
       </c>
       <c r="K16">
-        <v>0.9509715295242767</v>
+        <v>0.9508890634101752</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -948,31 +948,31 @@
         <v>16006910579.064</v>
       </c>
       <c r="C17">
-        <v>10328826568.366</v>
+        <v>10345869717.29</v>
       </c>
       <c r="D17">
         <v>40664718814.96</v>
       </c>
       <c r="E17">
-        <v>44183955134.288</v>
+        <v>44190260204.61401</v>
       </c>
       <c r="F17">
         <v>24657808235.896</v>
       </c>
       <c r="G17">
-        <v>28177044555.224</v>
+        <v>28183349625.55001</v>
       </c>
       <c r="H17">
         <v>56671629394.024</v>
       </c>
       <c r="I17">
-        <v>60190865713.35201</v>
+        <v>60197170783.67801</v>
       </c>
       <c r="J17">
-        <v>1.549731760245468</v>
+        <v>1.547178827538615</v>
       </c>
       <c r="K17">
-        <v>0.9203503554937078</v>
+        <v>0.9202190398216777</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -983,31 +983,31 @@
         <v>13961640425.765</v>
       </c>
       <c r="C18">
-        <v>9337877420.690001</v>
+        <v>9485654694.736</v>
       </c>
       <c r="D18">
         <v>35432454858.832</v>
       </c>
       <c r="E18">
-        <v>37541685736.918</v>
+        <v>37542601120.144</v>
       </c>
       <c r="F18">
         <v>21470814433.067</v>
       </c>
       <c r="G18">
-        <v>23580045311.153</v>
+        <v>23580960694.379</v>
       </c>
       <c r="H18">
         <v>49394095284.597</v>
       </c>
       <c r="I18">
-        <v>51503326162.683</v>
+        <v>51504241545.909</v>
       </c>
       <c r="J18">
-        <v>1.49516210127476</v>
+        <v>1.471868929986764</v>
       </c>
       <c r="K18">
-        <v>0.9438162981580817</v>
+        <v>0.9437932855382317</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1018,31 +1018,31 @@
         <v>9337925708.641001</v>
       </c>
       <c r="C19">
-        <v>7425556883.677</v>
+        <v>7580763205.710999</v>
       </c>
       <c r="D19">
         <v>22134505473.377</v>
       </c>
       <c r="E19">
-        <v>24009465280.814</v>
+        <v>24014840195.719</v>
       </c>
       <c r="F19">
         <v>12796579764.736</v>
       </c>
       <c r="G19">
-        <v>14671539572.173</v>
+        <v>14676914487.078</v>
       </c>
       <c r="H19">
         <v>31472431182.018</v>
       </c>
       <c r="I19">
-        <v>33347390989.455</v>
+        <v>33352765904.36</v>
       </c>
       <c r="J19">
-        <v>1.257538775195138</v>
+        <v>1.231792295214581</v>
       </c>
       <c r="K19">
-        <v>0.921907473344053</v>
+        <v>0.9217011353389226</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1053,31 +1053,31 @@
         <v>11378927920.701</v>
       </c>
       <c r="C20">
-        <v>9446555105.162001</v>
+        <v>9487569660.434</v>
       </c>
       <c r="D20">
         <v>34472161956.832</v>
       </c>
       <c r="E20">
-        <v>33477533120.018</v>
+        <v>33516293882.648</v>
       </c>
       <c r="F20">
         <v>23093234036.131</v>
       </c>
       <c r="G20">
-        <v>22098605199.317</v>
+        <v>22137365961.947</v>
       </c>
       <c r="H20">
         <v>45851089877.533</v>
       </c>
       <c r="I20">
-        <v>44856461040.71899</v>
+        <v>44895221803.349</v>
       </c>
       <c r="J20">
-        <v>1.204558465390528</v>
+        <v>1.199351185599673</v>
       </c>
       <c r="K20">
-        <v>1.029710338370758</v>
+        <v>1.028519503902515</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1088,31 +1088,31 @@
         <v>17802935241.948</v>
       </c>
       <c r="C21">
-        <v>13272757651.259</v>
+        <v>14301440169.113</v>
       </c>
       <c r="D21">
         <v>51274951711.647</v>
       </c>
       <c r="E21">
-        <v>48878816659.507</v>
+        <v>53389979661.658</v>
       </c>
       <c r="F21">
         <v>33472016469.699</v>
       </c>
       <c r="G21">
-        <v>31075881417.55899</v>
+        <v>35587044419.70999</v>
       </c>
       <c r="H21">
         <v>69077886953.595</v>
       </c>
       <c r="I21">
-        <v>66681751901.455</v>
+        <v>71192914903.606</v>
       </c>
       <c r="J21">
-        <v>1.341313968786229</v>
+        <v>1.244835137680555</v>
       </c>
       <c r="K21">
-        <v>1.049021952982856</v>
+        <v>0.9603853014476815</v>
       </c>
     </row>
   </sheetData>
